--- a/biology/Médecine/Reiner_Fuellmich/Reiner_Fuellmich.xlsx
+++ b/biology/Médecine/Reiner_Fuellmich/Reiner_Fuellmich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reiner Fuellmich, né en 1958 à Brême, est un avocat allemand, connu pour son opposition aux mesures de lutte contre la pandémie de Covid-19. 
 </t>
@@ -511,12 +523,49 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, le cabinet d'avocats de Fuellmich a été classé parmi les 20 premiers cabinets d'avocats pour la protection des investisseurs en Allemagne[1].
-Covid-19
-Durant la crise du coronavirus il s'est fait plus largement connaître en prétendant organiser un procès qu'il qualifie de « Nuremberg 2.0 » contre les mesures sanitaires. Il offre aux entreprises la possibilité de se joindre à une action collective aux États-Unis, ce qui lui permet de collecter des honoraires[2].
-En octobre 2022, Viviane Fischer[3] et Reiner Fuellmich, tous deux organisateurs de l'action de groupe « Nuremberg 2.0 », s'accusent mutuellement d'avoir profité personnellement de la cagnotte dédiée à l'organisation du procès[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, le cabinet d'avocats de Fuellmich a été classé parmi les 20 premiers cabinets d'avocats pour la protection des investisseurs en Allemagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Reiner_Fuellmich</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reiner_Fuellmich</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Covid-19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la crise du coronavirus il s'est fait plus largement connaître en prétendant organiser un procès qu'il qualifie de « Nuremberg 2.0 » contre les mesures sanitaires. Il offre aux entreprises la possibilité de se joindre à une action collective aux États-Unis, ce qui lui permet de collecter des honoraires.
+En octobre 2022, Viviane Fischer et Reiner Fuellmich, tous deux organisateurs de l'action de groupe « Nuremberg 2.0 », s'accusent mutuellement d'avoir profité personnellement de la cagnotte dédiée à l'organisation du procès.
 </t>
         </is>
       </c>
